--- a/data/infrastructure_2.xlsx
+++ b/data/infrastructure_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthijssenef\PycharmProjects\excel-2-esdl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DF4164-95AD-41FC-8913-73A1D3EAF9BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EFD41C-1CFB-42B9-BB87-A80EC8AAB170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="3435" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Areas" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -75,12 +75,6 @@
     <t>Power</t>
   </si>
   <si>
-    <t>Efficiency_value</t>
-  </si>
-  <si>
-    <t>Efficiency_attribute</t>
-  </si>
-  <si>
     <t>InPort1_ID</t>
   </si>
   <si>
@@ -289,6 +283,18 @@
   </si>
   <si>
     <t>POLYGON((4.466757774353028 52.103842911287735, 4.466757774353028 52.11085411729098, 4.492335319519044 52.11085411729098, 4.492335319519044 52.103842911287735, 4.466757774353028 52.103842911287735))</t>
+  </si>
+  <si>
+    <t>Attribute1</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Profile_Physical_Quantity</t>
+  </si>
+  <si>
+    <t>ENERGY</t>
   </si>
 </sst>
 </file>
@@ -627,76 +633,76 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
         <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
         <v>78</v>
       </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>82</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -733,7 +739,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -788,13 +794,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +810,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -818,11 +824,12 @@
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -839,137 +846,147 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>
       </c>
       <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>10000</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2">
-        <v>50</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>10000</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
         <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
         <v>34</v>
       </c>
-      <c r="L3">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G4" s="1">
         <v>1000000000</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
         <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1013,37 +1030,37 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>
       </c>
       <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
         <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
       </c>
       <c r="O1" t="s">
         <v>11</v>
       </c>
       <c r="P1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q1" t="s">
         <v>12</v>
@@ -1051,96 +1068,96 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>4000</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I2">
         <v>3.2</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
         <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G3" s="1">
         <v>1000000000</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I3">
         <v>0.4</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
         <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O3" t="s">
         <v>6</v>
       </c>
       <c r="P3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1182,16 +1199,16 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
         <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
@@ -1199,25 +1216,25 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
         <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" t="s">
-        <v>52</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J2" t="s">
         <v>6</v>
@@ -1253,113 +1270,113 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
